--- a/Income/INVH_inc.xlsx
+++ b/Income/INVH_inc.xlsx
@@ -959,22 +959,22 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.0</v>
+        <v>0.6349</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0.6341</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0.616</v>
+        <v>0.6155</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>0.6004</v>
+        <v>0.5998</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0.5886</v>
+        <v>0.5881</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0.5859</v>
+        <v>0.5854</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>0.5859</v>
@@ -1030,22 +1030,22 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0.0</v>
+        <v>0.2725</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0.2734</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.2587</v>
+        <v>0.2621</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0.2493</v>
+        <v>0.2527</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.2419</v>
+        <v>0.2452</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.2305</v>
+        <v>0.2303</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0.2245</v>
@@ -1107,13 +1107,13 @@
         <v>0.0913</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.0611</v>
+        <v>0.061</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>0.0577</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.0465</v>
+        <v>0.0464</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>0.0288</v>
@@ -1178,16 +1178,16 @@
         <v>0.0903</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.06</v>
+        <v>0.0784</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.0686</v>
+        <v>0.0866</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.0719</v>
+        <v>0.0898</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.0643</v>
+        <v>0.0822</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.0675</v>
@@ -1243,22 +1243,22 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.0</v>
+        <v>0.4956</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0.4919</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.6536</v>
+        <v>0.653</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.6582</v>
+        <v>0.6576</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.6947</v>
+        <v>0.694</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.7351</v>
+        <v>0.7344</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.6965</v>
@@ -2060,22 +2060,22 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0.0</v>
+        <v>0.6172</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0.6219</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.5996</v>
+        <v>0.6026</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.5862</v>
+        <v>0.5892</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.575</v>
+        <v>0.578</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.5656</v>
+        <v>0.5651</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0.5597</v>
@@ -2131,22 +2131,22 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0.0</v>
+        <v>0.436</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0.4077</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.4031</v>
+        <v>0.4027</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>0.3901</v>
+        <v>0.3897</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0.3655</v>
+        <v>0.3651</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0.3755</v>
+        <v>0.3752</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>0.3645</v>
